--- a/data/online/FacebookLima.xlsx
+++ b/data/online/FacebookLima.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgbecerra/Documents/GitHub/analitics/data/online/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/analitics/data/online/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,15 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Candidato</t>
   </si>
@@ -44,42 +50,6 @@
     <t>Velarde</t>
   </si>
   <si>
-    <t>totPost</t>
-  </si>
-  <si>
-    <t>likesPage</t>
-  </si>
-  <si>
-    <t>talking</t>
-  </si>
-  <si>
-    <t>totEng</t>
-  </si>
-  <si>
-    <t>aveEngage</t>
-  </si>
-  <si>
-    <t>engLike</t>
-  </si>
-  <si>
-    <t>engComm</t>
-  </si>
-  <si>
-    <t>engShare</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>fotos</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
     <t>Capuñay</t>
   </si>
   <si>
@@ -93,12 +63,78 @@
   </si>
   <si>
     <t>Fernandez</t>
+  </si>
+  <si>
+    <t>RICARDO BELMONT</t>
+  </si>
+  <si>
+    <t>JORGE MUÑOZ</t>
+  </si>
+  <si>
+    <t>DANIEL URRESTI</t>
+  </si>
+  <si>
+    <t>RENZO REGGIARDO</t>
+  </si>
+  <si>
+    <t>ALBERTO BEINGOLEA</t>
+  </si>
+  <si>
+    <t>GUSTAVO GG</t>
+  </si>
+  <si>
+    <t>E OCROSPOMA</t>
+  </si>
+  <si>
+    <t>JULIO GAGO</t>
+  </si>
+  <si>
+    <t>J VILLACORTA</t>
+  </si>
+  <si>
+    <t>GOMEZ BACA</t>
+  </si>
+  <si>
+    <t>totEngagement</t>
+  </si>
+  <si>
+    <t>engagementLike</t>
+  </si>
+  <si>
+    <t>engagementComm</t>
+  </si>
+  <si>
+    <t>engagementShare</t>
+  </si>
+  <si>
+    <t>averageEngagement</t>
+  </si>
+  <si>
+    <t>talkingAbout</t>
+  </si>
+  <si>
+    <t>likesToPage</t>
+  </si>
+  <si>
+    <t>fotosOnPage</t>
+  </si>
+  <si>
+    <t>linksOnPage</t>
+  </si>
+  <si>
+    <t>videoOnPage</t>
+  </si>
+  <si>
+    <t>statusOnPage</t>
+  </si>
+  <si>
+    <t>totPostOnPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -445,57 +481,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -521,22 +556,22 @@
         <v>5697</v>
       </c>
       <c r="I2">
+        <v>8585</v>
+      </c>
+      <c r="J2">
+        <v>1003</v>
+      </c>
+      <c r="K2">
+        <v>17316</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="J2">
-        <v>17316</v>
-      </c>
-      <c r="K2">
-        <v>8585</v>
-      </c>
-      <c r="L2">
-        <v>1003</v>
       </c>
       <c r="M2">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -562,22 +597,22 @@
         <v>21712</v>
       </c>
       <c r="I3">
+        <v>64978</v>
+      </c>
+      <c r="J3">
+        <v>10435</v>
+      </c>
+      <c r="K3">
+        <v>67935</v>
+      </c>
+      <c r="L3">
         <v>0</v>
-      </c>
-      <c r="J3">
-        <v>67935</v>
-      </c>
-      <c r="K3">
-        <v>64978</v>
-      </c>
-      <c r="L3">
-        <v>10435</v>
       </c>
       <c r="M3">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -603,13 +638,13 @@
         <v>4470</v>
       </c>
       <c r="I4">
+        <v>16212</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>24427</v>
-      </c>
-      <c r="K4">
-        <v>16212</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -618,7 +653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -644,22 +679,22 @@
         <v>3210</v>
       </c>
       <c r="I5">
+        <v>5190</v>
+      </c>
+      <c r="J5">
+        <v>204</v>
+      </c>
+      <c r="K5">
+        <v>4582</v>
+      </c>
+      <c r="L5">
         <v>0</v>
-      </c>
-      <c r="J5">
-        <v>4582</v>
-      </c>
-      <c r="K5">
-        <v>5190</v>
-      </c>
-      <c r="L5">
-        <v>204</v>
       </c>
       <c r="M5">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -685,13 +720,13 @@
         <v>10275</v>
       </c>
       <c r="I6">
+        <v>38074</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>28712</v>
-      </c>
-      <c r="K6">
-        <v>38074</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -700,9 +735,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>71148</v>
@@ -726,24 +761,24 @@
         <v>21301</v>
       </c>
       <c r="I7">
+        <v>20725</v>
+      </c>
+      <c r="J7">
+        <v>1221</v>
+      </c>
+      <c r="K7">
+        <v>35646</v>
+      </c>
+      <c r="L7">
         <v>66</v>
-      </c>
-      <c r="J7">
-        <v>35646</v>
-      </c>
-      <c r="K7">
-        <v>20725</v>
-      </c>
-      <c r="L7">
-        <v>1221</v>
       </c>
       <c r="M7">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>13172</v>
@@ -767,24 +802,24 @@
         <v>6690</v>
       </c>
       <c r="I8">
+        <v>11953</v>
+      </c>
+      <c r="J8">
+        <v>62</v>
+      </c>
+      <c r="K8">
+        <v>13344</v>
+      </c>
+      <c r="L8">
         <v>0</v>
-      </c>
-      <c r="J8">
-        <v>13344</v>
-      </c>
-      <c r="K8">
-        <v>11953</v>
-      </c>
-      <c r="L8">
-        <v>62</v>
       </c>
       <c r="M8">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>76556</v>
@@ -808,13 +843,13 @@
         <v>13464</v>
       </c>
       <c r="I9">
+        <v>25555</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>17991</v>
-      </c>
-      <c r="K9">
-        <v>25555</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -823,9 +858,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>70906</v>
@@ -849,24 +884,24 @@
         <v>11456</v>
       </c>
       <c r="I10">
+        <v>5572</v>
+      </c>
+      <c r="J10">
+        <v>5695</v>
+      </c>
+      <c r="K10">
+        <v>19454</v>
+      </c>
+      <c r="L10">
         <v>1763</v>
-      </c>
-      <c r="J10">
-        <v>19454</v>
-      </c>
-      <c r="K10">
-        <v>5572</v>
-      </c>
-      <c r="L10">
-        <v>5695</v>
       </c>
       <c r="M10">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>20706</v>
@@ -890,19 +925,420 @@
         <v>48975</v>
       </c>
       <c r="I11">
+        <v>45168</v>
+      </c>
+      <c r="J11">
+        <v>4157</v>
+      </c>
+      <c r="K11">
+        <v>104104</v>
+      </c>
+      <c r="L11">
         <v>2038</v>
-      </c>
-      <c r="J11">
-        <v>104104</v>
-      </c>
-      <c r="K11">
-        <v>45168</v>
-      </c>
-      <c r="L11">
-        <v>4157</v>
       </c>
       <c r="M11">
         <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>117029</v>
+      </c>
+      <c r="C12">
+        <v>39945</v>
+      </c>
+      <c r="D12">
+        <v>356796</v>
+      </c>
+      <c r="E12">
+        <v>4299</v>
+      </c>
+      <c r="F12">
+        <v>136570</v>
+      </c>
+      <c r="G12">
+        <v>135212</v>
+      </c>
+      <c r="H12">
+        <v>85040</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>73</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>154473</v>
+      </c>
+      <c r="C13">
+        <v>219166</v>
+      </c>
+      <c r="D13">
+        <v>476649</v>
+      </c>
+      <c r="E13">
+        <v>2020</v>
+      </c>
+      <c r="F13">
+        <v>310249</v>
+      </c>
+      <c r="G13">
+        <v>45003</v>
+      </c>
+      <c r="H13">
+        <v>121407</v>
+      </c>
+      <c r="I13">
+        <v>188</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>42</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>237673</v>
+      </c>
+      <c r="C14">
+        <v>113530</v>
+      </c>
+      <c r="D14">
+        <v>579444</v>
+      </c>
+      <c r="E14">
+        <v>2336</v>
+      </c>
+      <c r="F14">
+        <v>339549</v>
+      </c>
+      <c r="G14">
+        <v>95554</v>
+      </c>
+      <c r="H14">
+        <v>144341</v>
+      </c>
+      <c r="I14">
+        <v>70</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>165</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>34218</v>
+      </c>
+      <c r="C15">
+        <v>617219</v>
+      </c>
+      <c r="D15">
+        <v>118050</v>
+      </c>
+      <c r="E15">
+        <v>522</v>
+      </c>
+      <c r="F15">
+        <v>63142</v>
+      </c>
+      <c r="G15">
+        <v>41667</v>
+      </c>
+      <c r="H15">
+        <v>13241</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>150</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12473</v>
+      </c>
+      <c r="C16">
+        <v>2025</v>
+      </c>
+      <c r="D16">
+        <v>4579</v>
+      </c>
+      <c r="E16">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>3603</v>
+      </c>
+      <c r="G16">
+        <v>222</v>
+      </c>
+      <c r="H16">
+        <v>754</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>56091</v>
+      </c>
+      <c r="C17">
+        <v>492</v>
+      </c>
+      <c r="D17">
+        <v>1686</v>
+      </c>
+      <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>1065</v>
+      </c>
+      <c r="G17">
+        <v>99</v>
+      </c>
+      <c r="H17">
+        <v>522</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>19</v>
+      </c>
+      <c r="M17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>11563</v>
+      </c>
+      <c r="C18">
+        <v>5408</v>
+      </c>
+      <c r="D18">
+        <v>19989</v>
+      </c>
+      <c r="E18">
+        <v>241</v>
+      </c>
+      <c r="F18">
+        <v>7378</v>
+      </c>
+      <c r="G18">
+        <v>7104</v>
+      </c>
+      <c r="H18">
+        <v>5507</v>
+      </c>
+      <c r="I18">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>49</v>
+      </c>
+      <c r="M18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8213</v>
+      </c>
+      <c r="C19">
+        <v>6350</v>
+      </c>
+      <c r="D19">
+        <v>13603</v>
+      </c>
+      <c r="E19">
+        <v>146</v>
+      </c>
+      <c r="F19">
+        <v>5329</v>
+      </c>
+      <c r="G19">
+        <v>6413</v>
+      </c>
+      <c r="H19">
+        <v>1861</v>
+      </c>
+      <c r="I19">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2593</v>
+      </c>
+      <c r="C20">
+        <v>533</v>
+      </c>
+      <c r="D20">
+        <v>4896</v>
+      </c>
+      <c r="E20">
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <v>3709</v>
+      </c>
+      <c r="G20">
+        <v>428</v>
+      </c>
+      <c r="H20">
+        <v>759</v>
+      </c>
+      <c r="I20">
+        <v>33</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>32858</v>
+      </c>
+      <c r="C21">
+        <v>992</v>
+      </c>
+      <c r="D21">
+        <v>6066</v>
+      </c>
+      <c r="E21">
+        <v>98</v>
+      </c>
+      <c r="F21">
+        <v>3694</v>
+      </c>
+      <c r="G21">
+        <v>1401</v>
+      </c>
+      <c r="H21">
+        <v>971</v>
+      </c>
+      <c r="I21">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
